--- a/examples/DropsTestRunDefinition.xlsx
+++ b/examples/DropsTestRunDefinition.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781DA5B-F1FF-1A40-87F5-5D31CCC08D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="2220" windowWidth="21440" windowHeight="18440" activeTab="2" xr2:uid="{C21CBE73-8099-B346-9E91-2E7A276E3EDF}"/>
+    <workbookView windowWidth="24555" windowHeight="11670" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun" sheetId="1" r:id="rId1"/>
@@ -20,28 +14,17 @@
     <sheet name="TestStep" sheetId="5" r:id="rId5"/>
     <sheet name="TestStepExecution" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bernhard Buhl</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0D5A5C55-F329-2F40-A0CE-5DE0B221E964}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Bernhard Buhl:</t>
         </r>
@@ -58,103 +41,22 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLICKIF (Requires LocatorType, Locator, Field from Datafile to check, whether it has a value)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CLICK (Requires LocatorType, Locator)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">SETTEXT (Requires LocatorType, Locator, Value from Datafile)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">SETTEXTIF (same as SetText - will not do anything if Value from Datafile is empty)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ASSERT (Requires LocatorType, Locator, Value from Datafile to compare to)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">GOTOURL (Requires Value)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">HANDLEIFRAME (Requires Value)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">IF (Requires Value)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ENDIF</t>
+CLICKIF (Requires LocatorType, Locator, Field from Datafile to check, whether it has a value)
+CLICK (Requires LocatorType, Locator)
+SETTEXT (Requires LocatorType, Locator, Value from Datafile)
+SETTEXTIF (same as SetText - will not do anything if Value from Datafile is empty)
+ASSERT (Requires LocatorType, Locator, Value from Datafile to compare to)
+GOTOURL (Requires Value)
+HANDLEIFRAME (Requires Value)
+IF (Requires Value)
+ENDIF</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E3FC1A0B-F3A5-5345-80BF-BAC33BAEB89C}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +64,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Bernhard Buhl:</t>
         </r>
@@ -171,39 +73,12 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">XPATH
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">CSS
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
+XPATH
+CSS
+ID</t>
         </r>
       </text>
     </comment>
@@ -212,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Attribute</t>
   </si>
@@ -226,10 +101,28 @@
     <t>XLSX</t>
   </si>
   <si>
+    <t>Fieldname</t>
+  </si>
+  <si>
+    <t>TFName</t>
+  </si>
+  <si>
+    <t>TFDescription</t>
+  </si>
+  <si>
+    <t>baseURL</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
     <t>GC.TIMELOG</t>
   </si>
   <si>
-    <t>Fieldname</t>
+    <t>GC.TIMING_DURATION</t>
   </si>
   <si>
     <t>Number</t>
@@ -238,197 +131,517 @@
     <t>SequenceClass</t>
   </si>
   <si>
+    <t>TestDataFileName</t>
+  </si>
+  <si>
+    <t>Sheetname</t>
+  </si>
+  <si>
+    <t>ParallelRuns</t>
+  </si>
+  <si>
+    <t>Lines</t>
+  </si>
+  <si>
     <t>GC.CLASSES_TESTCASESEQUENCE</t>
   </si>
   <si>
-    <t>Sheetname</t>
+    <t>DropsTestExample.xlsx</t>
   </si>
   <si>
     <t>Testcases</t>
   </si>
   <si>
-    <t>ParallelRuns</t>
+    <t>1-2</t>
   </si>
   <si>
     <t>TestCaseSequenceNumber</t>
   </si>
   <si>
+    <t>TestCaseNumber</t>
+  </si>
+  <si>
     <t>TestCaseClass</t>
   </si>
   <si>
+    <t>TestCaseType</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>BrowserAttributes</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
     <t>GC.CLASSES_TESTCASE</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>GC.BROWSER_FIREFOX</t>
   </si>
   <si>
-    <t>BrowserAttributes</t>
-  </si>
-  <si>
-    <t>TestCaseType</t>
-  </si>
-  <si>
     <t>TestStepNumber</t>
   </si>
   <si>
     <t>TestStepClass</t>
   </si>
   <si>
-    <t>GC.TIMING_DURATION</t>
-  </si>
-  <si>
-    <t>TestCaseNumber</t>
-  </si>
-  <si>
-    <t>TestDataFileName</t>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>GC.CLASSES_TESTSTEPMASTER</t>
   </si>
   <si>
     <t>TestStepExecutionNumber</t>
   </si>
   <si>
+    <t>Activity</t>
+  </si>
+  <si>
     <t>LocatorType</t>
   </si>
   <si>
     <t>Locator</t>
   </si>
   <si>
-    <t>Activity</t>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
   <si>
     <t>GOTOURL</t>
   </si>
   <si>
+    <t>https://drops.earthsquad.global</t>
+  </si>
+  <si>
     <t>SETTEXT</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <t>Value2</t>
+    <t>(//input[@step='any'])[1]</t>
+  </si>
+  <si>
+    <t>$(Username)</t>
+  </si>
+  <si>
+    <t>(//input[@step='any'])[2]</t>
+  </si>
+  <si>
+    <t>$(Password)</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>CLICK</t>
   </si>
   <si>
-    <t>TFName</t>
-  </si>
-  <si>
-    <t>TFDescription</t>
-  </si>
-  <si>
-    <t>Timeout</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>baseURL</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>https://drops.earthsquad.global</t>
-  </si>
-  <si>
-    <t>(//input[@step='any'])[1]</t>
-  </si>
-  <si>
-    <t>$(Username)</t>
-  </si>
-  <si>
-    <t>$(Password)</t>
-  </si>
-  <si>
-    <t>(//input[@step='any'])[2]</t>
-  </si>
-  <si>
     <t>//button[contains(.,'Submit')]</t>
-  </si>
-  <si>
-    <t>DropsTestExample.xlsx</t>
-  </si>
-  <si>
-    <t>GC.CLASSES_TESTSTEPMASTER</t>
-  </si>
-  <si>
-    <t>Lines</t>
-  </si>
-  <si>
-    <t>1-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF008080"/>
       <name val="Menlo"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -436,30 +649,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,7 +1004,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -541,26 +1037,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -593,23 +1072,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -751,29 +1213,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AEF124-7338-8D44-8462-F8720F1AF91C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,8 +1238,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -790,236 +1247,252 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181D6E7-D17F-0041-A94D-64B92F668767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2EF012-49BA-EB43-B0C5-88D33BAB0810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B16A73-1BAF-BA49-BD9D-DD821FC23E3F}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196B95F-639E-DC45-9635-DA04DCBB7468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.1666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,74 +1503,76 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79890A34-1943-0E42-B53E-BE7CAA0D6A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="7.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="54.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1111,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1131,22 +1606,22 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1160,22 +1635,22 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1189,20 +1664,21 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{63A75D94-5CF5-8248-B124-B1D9388AB0CB}"/>
+    <hyperlink ref="H2" r:id="rId3" display="https://drops.earthsquad.global"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/examples/DropsTestRunDefinition.xlsx
+++ b/examples/DropsTestRunDefinition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24555" windowHeight="11670" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Attribute</t>
   </si>
@@ -174,6 +174,15 @@
   </si>
   <si>
     <t>Mobile</t>
+  </si>
+  <si>
+    <t>platformName</t>
+  </si>
+  <si>
+    <t>deviceName</t>
+  </si>
+  <si>
+    <t>platfomrVersion</t>
   </si>
   <si>
     <t>GC.CLASSES_TESTCASE</t>
@@ -256,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -292,7 +301,135 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,134 +438,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,13 +465,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,169 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,10 +661,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -672,6 +688,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,182 +756,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,13 +1405,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="23.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -1410,9 +1419,12 @@
     <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
     <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="20.25" customWidth="1"/>
+    <col min="10" max="10" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1434,6 +1446,15 @@
       <c r="G1" t="s">
         <v>28</v>
       </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
@@ -1443,13 +1464,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1483,13 +1504,13 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1503,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1529,6 +1550,7 @@
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="54.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1539,37 +1561,37 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1586,10 +1608,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1606,16 +1628,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1635,19 +1657,19 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1664,13 +1686,13 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/examples/DropsTestRunDefinition.xlsx
+++ b/examples/DropsTestRunDefinition.xlsx
@@ -182,7 +182,7 @@
     <t>deviceName</t>
   </si>
   <si>
-    <t>platfomrVersion</t>
+    <t>platformVersion</t>
   </si>
   <si>
     <t>GC.CLASSES_TESTCASE</t>
@@ -265,9 +265,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -301,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,12 +310,80 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,30 +397,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,37 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -405,39 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,187 +465,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,71 +664,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +685,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -759,146 +759,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1408,7 +1408,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1"/>

--- a/examples/DropsTestRunDefinition.xlsx
+++ b/examples/DropsTestRunDefinition.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\baangt\baangt\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781DA5B-F1FF-1A40-87F5-5D31CCC08D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="2220" windowWidth="21440" windowHeight="18440" activeTab="2" xr2:uid="{C21CBE73-8099-B346-9E91-2E7A276E3EDF}"/>
+    <workbookView xWindow="7716" yWindow="2220" windowWidth="21444" windowHeight="18444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="TestStep" sheetId="5" r:id="rId5"/>
     <sheet name="TestStepExecution" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +35,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bernhard Buhl</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0D5A5C55-F329-2F40-A0CE-5DE0B221E964}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E3FC1A0B-F3A5-5345-80BF-BAC33BAEB89C}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,9 +261,6 @@
     <t>Browser</t>
   </si>
   <si>
-    <t>GC.BROWSER_FIREFOX</t>
-  </si>
-  <si>
     <t>BrowserAttributes</t>
   </si>
   <si>
@@ -371,13 +367,16 @@
   </si>
   <si>
     <t>1-2</t>
+  </si>
+  <si>
+    <t>GC.BROWSER_CHROME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,8 +448,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,19 +760,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AEF124-7338-8D44-8462-F8720F1AF91C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,72 +794,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181D6E7-D17F-0041-A94D-64B92F668767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
@@ -869,22 +868,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2EF012-49BA-EB43-B0C5-88D33BAB0810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" customWidth="1"/>
+    <col min="2" max="2" width="29.296875" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -892,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -901,10 +900,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -912,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -921,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -930,41 +929,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B16A73-1BAF-BA49-BD9D-DD821FC23E3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -978,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -988,38 +987,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196B95F-639E-DC45-9635-DA04DCBB7468}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1039,85 +1038,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79890A34-1943-0E42-B53E-BE7CAA0D6A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="7.296875" customWidth="1"/>
+    <col min="4" max="4" width="23.69921875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="54.33203125" customWidth="1"/>
+    <col min="7" max="7" width="54.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1131,22 +1130,22 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1160,22 +1159,22 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1189,18 +1188,18 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{63A75D94-5CF5-8248-B124-B1D9388AB0CB}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>

--- a/examples/DropsTestRunDefinition.xlsx
+++ b/examples/DropsTestRunDefinition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\baangt\baangt\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernhardbuhl/git/baangt/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A781DA5B-F1FF-1A40-87F5-5D31CCC08D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7716" yWindow="2220" windowWidth="21444" windowHeight="18444" activeTab="3"/>
+    <workbookView xWindow="7720" yWindow="2220" windowWidth="21440" windowHeight="18440" activeTab="2" xr2:uid="{C21CBE73-8099-B346-9E91-2E7A276E3EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestRun" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="TestStep" sheetId="5" r:id="rId5"/>
     <sheet name="TestStepExecution" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Bernhard Buhl</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0D5A5C55-F329-2F40-A0CE-5DE0B221E964}">
       <text>
         <r>
           <rPr>
@@ -153,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{E3FC1A0B-F3A5-5345-80BF-BAC33BAEB89C}">
       <text>
         <r>
           <rPr>
@@ -261,6 +262,9 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>GC.BROWSER_FIREFOX</t>
+  </si>
+  <si>
     <t>BrowserAttributes</t>
   </si>
   <si>
@@ -367,16 +371,13 @@
   </si>
   <si>
     <t>1-2</t>
-  </si>
-  <si>
-    <t>GC.BROWSER_CHROME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,8 +449,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -760,19 +761,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1AEF124-7338-8D44-8462-F8720F1AF91C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -794,72 +795,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F181D6E7-D17F-0041-A94D-64B92F668767}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
   </sheetData>
@@ -868,22 +869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2EF012-49BA-EB43-B0C5-88D33BAB0810}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="29.296875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -891,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -900,10 +901,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -911,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -920,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -929,41 +930,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B16A73-1BAF-BA49-BD9D-DD821FC23E3F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -987,38 +988,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196B95F-639E-DC45-9635-DA04DCBB7468}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="54.19921875" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1038,65 +1039,65 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79890A34-1943-0E42-B53E-BE7CAA0D6A12}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" customWidth="1"/>
-    <col min="3" max="3" width="7.296875" customWidth="1"/>
-    <col min="4" max="4" width="23.69921875" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="54.296875" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1110,13 +1111,13 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1130,22 +1131,22 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1159,22 +1160,22 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1188,18 +1189,18 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{63A75D94-5CF5-8248-B124-B1D9388AB0CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
